--- a/Code/Results/Cases/Case_4_245/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_245/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.11031735892244</v>
+        <v>15.65527733097282</v>
       </c>
       <c r="C2">
-        <v>13.29331184562577</v>
+        <v>9.217579372478697</v>
       </c>
       <c r="D2">
-        <v>7.160003421246333</v>
+        <v>5.992695946119151</v>
       </c>
       <c r="E2">
-        <v>6.969612051414038</v>
+        <v>11.45696887856955</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.076518565682362</v>
+        <v>3.648436921934586</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.34098327892424</v>
+        <v>24.04506748762702</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.318631353525178</v>
+        <v>10.09427547790971</v>
       </c>
       <c r="M2">
-        <v>12.03647960574015</v>
+        <v>15.13757940450871</v>
       </c>
       <c r="N2">
-        <v>12.08212957266696</v>
+        <v>18.3783084496608</v>
       </c>
       <c r="O2">
-        <v>17.85336431628407</v>
+        <v>24.87743058639047</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.73961012893211</v>
+        <v>15.2164130235177</v>
       </c>
       <c r="C3">
-        <v>12.56676518001926</v>
+        <v>8.878859553085061</v>
       </c>
       <c r="D3">
-        <v>6.661881563902243</v>
+        <v>5.875524423247644</v>
       </c>
       <c r="E3">
-        <v>7.035231473081105</v>
+        <v>11.48335211977613</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.082773813362708</v>
+        <v>3.650834671908555</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.34804963547922</v>
+        <v>24.13108588010045</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.231962832233219</v>
+        <v>10.10280143323905</v>
       </c>
       <c r="M3">
-        <v>11.48509541948199</v>
+        <v>15.05260877172884</v>
       </c>
       <c r="N3">
-        <v>12.28367961767607</v>
+        <v>18.4395106789159</v>
       </c>
       <c r="O3">
-        <v>17.48314511872141</v>
+        <v>24.90377155126863</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.84875473884108</v>
+        <v>14.94311038225234</v>
       </c>
       <c r="C4">
-        <v>12.09914106476301</v>
+        <v>8.662349398054443</v>
       </c>
       <c r="D4">
-        <v>6.339177935782137</v>
+        <v>5.80420264812263</v>
       </c>
       <c r="E4">
-        <v>7.077119805346162</v>
+        <v>11.50044092543329</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.086732049008526</v>
+        <v>3.652385608228251</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.36751532049199</v>
+        <v>24.18917336710144</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.181286373343073</v>
+        <v>10.1094802688458</v>
       </c>
       <c r="M4">
-        <v>11.13765206009534</v>
+        <v>15.00267361744759</v>
       </c>
       <c r="N4">
-        <v>12.41039679292577</v>
+        <v>18.4789237657561</v>
       </c>
       <c r="O4">
-        <v>17.26991707259753</v>
+        <v>24.92639514782073</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.47326090368182</v>
+        <v>14.83094552353581</v>
       </c>
       <c r="C5">
-        <v>11.90323871797197</v>
+        <v>8.572050925915702</v>
       </c>
       <c r="D5">
-        <v>6.210763962426217</v>
+        <v>5.775339402445063</v>
       </c>
       <c r="E5">
-        <v>7.094592770877167</v>
+        <v>11.5076289849975</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.088375419513588</v>
+        <v>3.653037483766122</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.37908021407135</v>
+        <v>24.21416679635724</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.161280685286114</v>
+        <v>10.1125654116447</v>
       </c>
       <c r="M5">
-        <v>10.99401746508673</v>
+        <v>14.98290314535522</v>
       </c>
       <c r="N5">
-        <v>12.46279895757419</v>
+        <v>18.49544758576067</v>
       </c>
       <c r="O5">
-        <v>17.18656904280724</v>
+        <v>24.93723283319563</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.41015532722415</v>
+        <v>14.81227807472335</v>
       </c>
       <c r="C6">
-        <v>11.87038913658308</v>
+        <v>8.556934426554973</v>
       </c>
       <c r="D6">
-        <v>6.19141922005362</v>
+        <v>5.77056012715784</v>
       </c>
       <c r="E6">
-        <v>7.097518533658406</v>
+        <v>11.50883611723761</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.088650156505532</v>
+        <v>3.653146928380158</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.3812149531491</v>
+        <v>24.21839670141433</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.157997917882698</v>
+        <v>10.11309965955112</v>
       </c>
       <c r="M6">
-        <v>10.97004933847685</v>
+        <v>14.97965566461621</v>
       </c>
       <c r="N6">
-        <v>12.47154696336477</v>
+        <v>18.49821933651466</v>
       </c>
       <c r="O6">
-        <v>17.17294302920066</v>
+        <v>24.939130050692</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.84374126804664</v>
+        <v>14.94160065727327</v>
       </c>
       <c r="C7">
-        <v>12.09652057709608</v>
+        <v>8.661139868783165</v>
       </c>
       <c r="D7">
-        <v>6.337364118985223</v>
+        <v>5.803812515539833</v>
       </c>
       <c r="E7">
-        <v>7.077353817706619</v>
+        <v>11.50053695742037</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.086754088113208</v>
+        <v>3.652394319165994</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.3676568067959</v>
+        <v>24.18950508775583</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.181013948055462</v>
+        <v>10.10952040404855</v>
       </c>
       <c r="M7">
-        <v>11.13572298055935</v>
+        <v>15.00240462311358</v>
       </c>
       <c r="N7">
-        <v>12.41110038986539</v>
+        <v>18.47914473670011</v>
       </c>
       <c r="O7">
-        <v>17.26877866863471</v>
+        <v>24.92653476114184</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.64786614759686</v>
+        <v>15.50485430725485</v>
       </c>
       <c r="C8">
-        <v>13.04730074194105</v>
+        <v>9.10260369712203</v>
       </c>
       <c r="D8">
-        <v>6.991726312545289</v>
+        <v>5.952192708571378</v>
       </c>
       <c r="E8">
-        <v>6.991906809013177</v>
+        <v>11.46588158236537</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.078651493508477</v>
+        <v>3.649247369188807</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.34017699375963</v>
+        <v>24.07363046798036</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.288225800121075</v>
+        <v>10.09691580778367</v>
       </c>
       <c r="M8">
-        <v>11.84831143355077</v>
+        <v>15.10782701646215</v>
       </c>
       <c r="N8">
-        <v>12.15101997146801</v>
+        <v>18.39903099090515</v>
       </c>
       <c r="O8">
-        <v>17.72279313040687</v>
+        <v>24.88517230605179</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.79890567836267</v>
+        <v>16.57186512369751</v>
       </c>
       <c r="C9">
-        <v>14.73899440563556</v>
+        <v>9.897656803618105</v>
       </c>
       <c r="D9">
-        <v>8.14293933389089</v>
+        <v>6.246171777909001</v>
       </c>
       <c r="E9">
-        <v>6.836965592402182</v>
+        <v>11.40495248855538</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.063655477259277</v>
+        <v>3.64369777921242</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.4139690371162</v>
+        <v>23.88837763957096</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.518256173667823</v>
+        <v>10.08363550454316</v>
       </c>
       <c r="M9">
-        <v>13.2040355859768</v>
+        <v>15.33157544516561</v>
       </c>
       <c r="N9">
-        <v>11.66366345454128</v>
+        <v>18.25642454359037</v>
       </c>
       <c r="O9">
-        <v>18.72436441527666</v>
+        <v>24.85536755914772</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.8836074333801</v>
+        <v>17.32424845644298</v>
       </c>
       <c r="C10">
-        <v>15.87512900798453</v>
+        <v>10.43536422090796</v>
       </c>
       <c r="D10">
-        <v>8.910783027760454</v>
+        <v>6.461476841036696</v>
       </c>
       <c r="E10">
-        <v>6.73075422699038</v>
+        <v>11.36443580609818</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.053124311715036</v>
+        <v>3.639995303431135</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.55641485031514</v>
+        <v>23.77806064019801</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.698824442479162</v>
+        <v>10.08082228052668</v>
       </c>
       <c r="M10">
-        <v>14.36551122536885</v>
+        <v>15.50530639693698</v>
       </c>
       <c r="N10">
-        <v>11.31817519076043</v>
+        <v>18.16040298159903</v>
       </c>
       <c r="O10">
-        <v>19.52695139176581</v>
+        <v>24.86487698995134</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.78320809693522</v>
+        <v>17.65807699556569</v>
       </c>
       <c r="C11">
-        <v>16.36881295157813</v>
+        <v>10.66934398301518</v>
       </c>
       <c r="D11">
-        <v>9.243743232836051</v>
+        <v>6.55877319091034</v>
       </c>
       <c r="E11">
-        <v>6.684081414907564</v>
+        <v>11.34691810232644</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.048425165573732</v>
+        <v>3.638391461396227</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.64256119365375</v>
+        <v>23.73351523871507</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.783373266243312</v>
+        <v>10.08104260006113</v>
       </c>
       <c r="M11">
-        <v>14.86776776876127</v>
+        <v>15.58613831409439</v>
       </c>
       <c r="N11">
-        <v>11.16345424221052</v>
+        <v>18.11860237407027</v>
       </c>
       <c r="O11">
-        <v>19.90628281796175</v>
+        <v>24.87603333795955</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.11695955703828</v>
+        <v>17.78315879308646</v>
       </c>
       <c r="C12">
-        <v>16.55244522625689</v>
+        <v>10.75637980525225</v>
       </c>
       <c r="D12">
-        <v>9.367526912876551</v>
+        <v>6.595484313716284</v>
       </c>
       <c r="E12">
-        <v>6.66664373683418</v>
+        <v>11.34041536968798</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.04665764777471</v>
+        <v>3.637795627691717</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.67842741087865</v>
+        <v>23.71746111023117</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.815727131700944</v>
+        <v>10.08134092732142</v>
       </c>
       <c r="M12">
-        <v>15.05425851729451</v>
+        <v>15.61698597403853</v>
       </c>
       <c r="N12">
-        <v>11.10519361526909</v>
+        <v>18.10304258886396</v>
       </c>
       <c r="O12">
-        <v>20.05195043565583</v>
+        <v>24.88123949935631</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.04538577519047</v>
+        <v>17.75628119727747</v>
       </c>
       <c r="C13">
-        <v>16.51304383327848</v>
+        <v>10.73770535167025</v>
       </c>
       <c r="D13">
-        <v>9.340969435128823</v>
+        <v>6.587584438837832</v>
       </c>
       <c r="E13">
-        <v>6.670388738798851</v>
+        <v>11.34181003858634</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.047037803381775</v>
+        <v>3.637923440332974</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.67055593588015</v>
+        <v>23.72088238612663</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.808744292023943</v>
+        <v>10.08126713344483</v>
       </c>
       <c r="M13">
-        <v>15.01425822699115</v>
+        <v>15.61033210864047</v>
       </c>
       <c r="N13">
-        <v>11.11772682311021</v>
+        <v>18.10638171258444</v>
       </c>
       <c r="O13">
-        <v>20.02048863261266</v>
+        <v>24.88007462808521</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.81080387744928</v>
+        <v>17.66839488326552</v>
       </c>
       <c r="C14">
-        <v>16.38398681073268</v>
+        <v>10.67653608684769</v>
       </c>
       <c r="D14">
-        <v>9.253972825037351</v>
+        <v>6.561796321138059</v>
       </c>
       <c r="E14">
-        <v>6.682642069322722</v>
+        <v>11.34638049932063</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.048279518685047</v>
+        <v>3.638342211532163</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.64544591655995</v>
+        <v>23.73217811770168</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.786028331912861</v>
+        <v>10.08106284172229</v>
       </c>
       <c r="M14">
-        <v>14.88318437906437</v>
+        <v>15.58867151159723</v>
       </c>
       <c r="N14">
-        <v>11.15865464595094</v>
+        <v>18.11731687261349</v>
       </c>
       <c r="O14">
-        <v>19.91822654603735</v>
+        <v>24.87644198868079</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.66621917159149</v>
+        <v>17.61438519812144</v>
       </c>
       <c r="C15">
-        <v>16.3045045309101</v>
+        <v>10.6388629781553</v>
       </c>
       <c r="D15">
-        <v>9.200386680805437</v>
+        <v>6.545981901368596</v>
       </c>
       <c r="E15">
-        <v>6.690178368599735</v>
+        <v>11.34919706246539</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.049041623325182</v>
+        <v>3.638600217701803</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.6304929566475</v>
+        <v>23.73920321955206</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.77215779080433</v>
+        <v>10.08096566752674</v>
       </c>
       <c r="M15">
-        <v>14.80241722231023</v>
+        <v>15.5754341957609</v>
       </c>
       <c r="N15">
-        <v>11.18376626577171</v>
+        <v>18.12404999735517</v>
       </c>
       <c r="O15">
-        <v>19.85585094230543</v>
+        <v>24.87434467510336</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.82384416356722</v>
+        <v>17.30225182460983</v>
       </c>
       <c r="C16">
-        <v>15.84240069119628</v>
+        <v>10.41985578602721</v>
       </c>
       <c r="D16">
-        <v>8.888698619656347</v>
+        <v>6.455101821250146</v>
       </c>
       <c r="E16">
-        <v>6.733837463147675</v>
+        <v>11.36559896704043</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.053433152045192</v>
+        <v>3.640101731682022</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.55122956304147</v>
+        <v>23.78108554310544</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.693346621628042</v>
+        <v>10.08083800000215</v>
       </c>
       <c r="M16">
-        <v>14.3321665373547</v>
+        <v>15.50005832670333</v>
       </c>
       <c r="N16">
-        <v>11.32833382407484</v>
+        <v>18.16317248245898</v>
       </c>
       <c r="O16">
-        <v>19.5024454193162</v>
+        <v>24.86428530184356</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.29466122894357</v>
+        <v>17.10851957900674</v>
       </c>
       <c r="C17">
-        <v>15.5529919807687</v>
+        <v>10.28275063213985</v>
       </c>
       <c r="D17">
-        <v>8.693337449656362</v>
+        <v>6.399155100953252</v>
       </c>
       <c r="E17">
-        <v>6.761041665324913</v>
+        <v>11.37589460870229</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.056149820461657</v>
+        <v>3.641043420039851</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.50819699371367</v>
+        <v>23.80822560333674</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.645608366494709</v>
+        <v>10.08114333426293</v>
       </c>
       <c r="M17">
-        <v>14.03703176715446</v>
+        <v>15.45426437939335</v>
       </c>
       <c r="N17">
-        <v>11.41763131125675</v>
+        <v>18.18765356609483</v>
       </c>
       <c r="O17">
-        <v>19.28926903363765</v>
+        <v>24.85986342087168</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.98569519852591</v>
+        <v>16.99630240326304</v>
       </c>
       <c r="C18">
-        <v>15.3843512398904</v>
+        <v>10.20289315795436</v>
       </c>
       <c r="D18">
-        <v>8.579430264715205</v>
+        <v>6.366917383624158</v>
       </c>
       <c r="E18">
-        <v>6.776843453337182</v>
+        <v>11.38190240703777</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.057721069913243</v>
+        <v>3.641592628526931</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.48544483759119</v>
+        <v>23.82436635592311</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.618377688615677</v>
+        <v>10.08146020207613</v>
       </c>
       <c r="M18">
-        <v>13.86481764307034</v>
+        <v>15.4280956736436</v>
       </c>
       <c r="N18">
-        <v>11.46922423210067</v>
+        <v>18.20191146810504</v>
       </c>
       <c r="O18">
-        <v>19.1679962174337</v>
+        <v>24.85796308659003</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.88029257943489</v>
+        <v>16.95817615174484</v>
       </c>
       <c r="C19">
-        <v>15.32687764682695</v>
+        <v>10.17568463451487</v>
       </c>
       <c r="D19">
-        <v>8.540597227887705</v>
+        <v>6.355993423199649</v>
       </c>
       <c r="E19">
-        <v>6.782220234814335</v>
+        <v>11.38395133397783</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.058254596670672</v>
+        <v>3.64177988379487</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.47807930201634</v>
+        <v>23.82992234561969</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.609197146033371</v>
+        <v>10.08159177078307</v>
       </c>
       <c r="M19">
-        <v>13.80608484432372</v>
+        <v>15.41926534927104</v>
       </c>
       <c r="N19">
-        <v>11.48673312301574</v>
+        <v>18.20676938938061</v>
       </c>
       <c r="O19">
-        <v>19.12716637898724</v>
+        <v>24.85743011167859</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.35146839987298</v>
+        <v>17.12922510966634</v>
       </c>
       <c r="C20">
-        <v>15.58402564239107</v>
+        <v>10.29744932367577</v>
       </c>
       <c r="D20">
-        <v>8.714293087311257</v>
+        <v>6.40511708966832</v>
       </c>
       <c r="E20">
-        <v>6.758129727061204</v>
+        <v>11.37478972139485</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.05585973522552</v>
+        <v>3.640942392233243</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.51256971378086</v>
+        <v>23.80528156661532</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.650666749771303</v>
+        <v>10.08109621791111</v>
       </c>
       <c r="M20">
-        <v>14.0687036558555</v>
+        <v>15.45912169807047</v>
       </c>
       <c r="N20">
-        <v>11.40810165689759</v>
+        <v>18.18502919940068</v>
       </c>
       <c r="O20">
-        <v>19.31182346471141</v>
+        <v>24.86026759035394</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.87989291410958</v>
+        <v>17.69424626140075</v>
       </c>
       <c r="C21">
-        <v>16.42198379295393</v>
+        <v>10.69454580164147</v>
       </c>
       <c r="D21">
-        <v>9.279587895448353</v>
+        <v>6.56937483012578</v>
       </c>
       <c r="E21">
-        <v>6.679036553906278</v>
+        <v>11.34503449736081</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.047914482720203</v>
+        <v>3.638218896470807</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.65273190882646</v>
+        <v>23.72883816199269</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.792691480317512</v>
+        <v>10.08111702180421</v>
       </c>
       <c r="M21">
-        <v>14.92178401326252</v>
+        <v>15.59502745062658</v>
       </c>
       <c r="N21">
-        <v>11.14662440996656</v>
+        <v>18.1140976542168</v>
       </c>
       <c r="O21">
-        <v>19.94820864832012</v>
+        <v>24.87748235561647</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.83859314474806</v>
+        <v>18.05571005951032</v>
       </c>
       <c r="C22">
-        <v>16.95032898453208</v>
+        <v>10.94492191992959</v>
       </c>
       <c r="D22">
-        <v>9.635652143100794</v>
+        <v>6.675935204549758</v>
       </c>
       <c r="E22">
-        <v>6.628722251900801</v>
+        <v>11.32635014390375</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.042790802956631</v>
+        <v>3.636505975670207</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.76332574382228</v>
+        <v>23.68362557180734</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.887474028649801</v>
+        <v>10.08238276504181</v>
       </c>
       <c r="M22">
-        <v>15.45776480825256</v>
+        <v>15.68522932293818</v>
       </c>
       <c r="N22">
-        <v>10.97763979777144</v>
+        <v>18.06930835525846</v>
       </c>
       <c r="O22">
-        <v>20.37590952737091</v>
+        <v>24.89445313317376</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.33056170793525</v>
+        <v>17.86354105872029</v>
       </c>
       <c r="C23">
-        <v>16.67010056827187</v>
+        <v>10.8121401701661</v>
       </c>
       <c r="D23">
-        <v>9.446822496645963</v>
+        <v>6.619146962775643</v>
       </c>
       <c r="E23">
-        <v>6.655449776517955</v>
+        <v>11.33625274659454</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.0455195201802</v>
+        <v>3.637414079070794</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.70250536080626</v>
+        <v>23.70732086067372</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.836710099890442</v>
+        <v>10.08159293297156</v>
       </c>
       <c r="M23">
-        <v>15.17365620794811</v>
+        <v>15.63696754083901</v>
       </c>
       <c r="N23">
-        <v>11.06766326072543</v>
+        <v>18.09307010047973</v>
       </c>
       <c r="O23">
-        <v>20.14656490918706</v>
+        <v>24.88487260484978</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.32580062371211</v>
+        <v>17.11986674002597</v>
       </c>
       <c r="C24">
-        <v>15.57000235124952</v>
+        <v>10.29080726263232</v>
       </c>
       <c r="D24">
-        <v>8.704824004121518</v>
+        <v>6.402421899548702</v>
       </c>
       <c r="E24">
-        <v>6.759445710592571</v>
+        <v>11.37528896463296</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.055990853389433</v>
+        <v>3.640988042543349</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.51058662864266</v>
+        <v>23.80661089133126</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.648379185301775</v>
+        <v>10.08111707893366</v>
       </c>
       <c r="M24">
-        <v>14.05439270162482</v>
+        <v>15.45692520793082</v>
       </c>
       <c r="N24">
-        <v>11.41240921889506</v>
+        <v>18.18621510418536</v>
       </c>
       <c r="O24">
-        <v>19.3016226016579</v>
+        <v>24.86008286587191</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.98732689569708</v>
+        <v>16.28816879135542</v>
       </c>
       <c r="C25">
-        <v>14.30005060436806</v>
+        <v>9.690513276549561</v>
       </c>
       <c r="D25">
-        <v>7.84538257329294</v>
+        <v>6.166585568686013</v>
       </c>
       <c r="E25">
-        <v>6.877538234212683</v>
+        <v>11.42068673545672</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.06762244749312</v>
+        <v>3.645132974339123</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.37925857784098</v>
+        <v>23.93397877157326</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.453958399057955</v>
+        <v>10.08600637589678</v>
       </c>
       <c r="M25">
-        <v>12.82035337214485</v>
+        <v>15.26932778662383</v>
       </c>
       <c r="N25">
-        <v>11.79320640873853</v>
+        <v>18.29346038307748</v>
       </c>
       <c r="O25">
-        <v>18.4415972367467</v>
+        <v>24.85792118652575</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_245/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_245/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.65527733097282</v>
+        <v>20.11031735892245</v>
       </c>
       <c r="C2">
-        <v>9.217579372478697</v>
+        <v>13.29331184562568</v>
       </c>
       <c r="D2">
-        <v>5.992695946119151</v>
+        <v>7.160003421246283</v>
       </c>
       <c r="E2">
-        <v>11.45696887856955</v>
+        <v>6.969612051413971</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.648436921934586</v>
+        <v>2.07651856568236</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.04506748762702</v>
+        <v>15.34098327892414</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.09427547790971</v>
+        <v>6.318631353525181</v>
       </c>
       <c r="M2">
-        <v>15.13757940450871</v>
+        <v>12.03647960574015</v>
       </c>
       <c r="N2">
-        <v>18.3783084496608</v>
+        <v>12.08212957266693</v>
       </c>
       <c r="O2">
-        <v>24.87743058639047</v>
+        <v>17.85336431628403</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.2164130235177</v>
+        <v>18.73961012893209</v>
       </c>
       <c r="C3">
-        <v>8.878859553085061</v>
+        <v>12.56676518001922</v>
       </c>
       <c r="D3">
-        <v>5.875524423247644</v>
+        <v>6.661881563902258</v>
       </c>
       <c r="E3">
-        <v>11.48335211977613</v>
+        <v>7.035231473081102</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.650834671908555</v>
+        <v>2.082773813362975</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.13108588010045</v>
+        <v>15.34804963547927</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.10280143323905</v>
+        <v>6.231962832233187</v>
       </c>
       <c r="M3">
-        <v>15.05260877172884</v>
+        <v>11.48509541948201</v>
       </c>
       <c r="N3">
-        <v>18.4395106789159</v>
+        <v>12.28367961767607</v>
       </c>
       <c r="O3">
-        <v>24.90377155126863</v>
+        <v>17.48314511872141</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.94311038225234</v>
+        <v>17.84875473884115</v>
       </c>
       <c r="C4">
-        <v>8.662349398054443</v>
+        <v>12.09914106476297</v>
       </c>
       <c r="D4">
-        <v>5.80420264812263</v>
+        <v>6.339177935782144</v>
       </c>
       <c r="E4">
-        <v>11.50044092543329</v>
+        <v>7.077119805346163</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.652385608228251</v>
+        <v>2.086732049008524</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.18917336710144</v>
+        <v>15.36751532049206</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.1094802688458</v>
+        <v>6.181286373343044</v>
       </c>
       <c r="M4">
-        <v>15.00267361744759</v>
+        <v>11.13765206009533</v>
       </c>
       <c r="N4">
-        <v>18.4789237657561</v>
+        <v>12.41039679292587</v>
       </c>
       <c r="O4">
-        <v>24.92639514782073</v>
+        <v>17.26991707259756</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.83094552353581</v>
+        <v>17.47326090368185</v>
       </c>
       <c r="C5">
-        <v>8.572050925915702</v>
+        <v>11.90323871797191</v>
       </c>
       <c r="D5">
-        <v>5.775339402445063</v>
+        <v>6.210763962426187</v>
       </c>
       <c r="E5">
-        <v>11.5076289849975</v>
+        <v>7.094592770877169</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.653037483766122</v>
+        <v>2.088375419513721</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.21416679635724</v>
+        <v>15.37908021407141</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.1125654116447</v>
+        <v>6.161280685286141</v>
       </c>
       <c r="M5">
-        <v>14.98290314535522</v>
+        <v>10.99401746508674</v>
       </c>
       <c r="N5">
-        <v>18.49544758576067</v>
+        <v>12.46279895757423</v>
       </c>
       <c r="O5">
-        <v>24.93723283319563</v>
+        <v>17.18656904280726</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.81227807472335</v>
+        <v>17.41015532722412</v>
       </c>
       <c r="C6">
-        <v>8.556934426554973</v>
+        <v>11.87038913658319</v>
       </c>
       <c r="D6">
-        <v>5.77056012715784</v>
+        <v>6.191419220053623</v>
       </c>
       <c r="E6">
-        <v>11.50883611723761</v>
+        <v>7.097518533658404</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.653146928380158</v>
+        <v>2.088650156505934</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.21839670141433</v>
+        <v>15.38121495314921</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.11309965955112</v>
+        <v>6.157997917882644</v>
       </c>
       <c r="M6">
-        <v>14.97965566461621</v>
+        <v>10.97004933847689</v>
       </c>
       <c r="N6">
-        <v>18.49821933651466</v>
+        <v>12.47154696336477</v>
       </c>
       <c r="O6">
-        <v>24.939130050692</v>
+        <v>17.17294302920076</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.94160065727327</v>
+        <v>17.84374126804668</v>
       </c>
       <c r="C7">
-        <v>8.661139868783165</v>
+        <v>12.09652057709621</v>
       </c>
       <c r="D7">
-        <v>5.803812515539833</v>
+        <v>6.337364118985223</v>
       </c>
       <c r="E7">
-        <v>11.50053695742037</v>
+        <v>7.077353817706687</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.652394319165994</v>
+        <v>2.086754088113342</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.18950508775583</v>
+        <v>15.36765680679594</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.10952040404855</v>
+        <v>6.181013948055438</v>
       </c>
       <c r="M7">
-        <v>15.00240462311358</v>
+        <v>11.13572298055936</v>
       </c>
       <c r="N7">
-        <v>18.47914473670011</v>
+        <v>12.41110038986543</v>
       </c>
       <c r="O7">
-        <v>24.92653476114184</v>
+        <v>17.26877866863472</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.50485430725485</v>
+        <v>19.64786614759695</v>
       </c>
       <c r="C8">
-        <v>9.10260369712203</v>
+        <v>13.04730074194085</v>
       </c>
       <c r="D8">
-        <v>5.952192708571378</v>
+        <v>6.991726312545356</v>
       </c>
       <c r="E8">
-        <v>11.46588158236537</v>
+        <v>6.991906809013244</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.649247369188807</v>
+        <v>2.078651493508344</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.07363046798036</v>
+        <v>15.34017699375957</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.09691580778367</v>
+        <v>6.28822580012107</v>
       </c>
       <c r="M8">
-        <v>15.10782701646215</v>
+        <v>11.84831143355077</v>
       </c>
       <c r="N8">
-        <v>18.39903099090515</v>
+        <v>12.15101997146797</v>
       </c>
       <c r="O8">
-        <v>24.88517230605179</v>
+        <v>17.72279313040683</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.57186512369751</v>
+        <v>22.79890567836267</v>
       </c>
       <c r="C9">
-        <v>9.897656803618105</v>
+        <v>14.73899440563539</v>
       </c>
       <c r="D9">
-        <v>6.246171777909001</v>
+        <v>8.142939333890832</v>
       </c>
       <c r="E9">
-        <v>11.40495248855538</v>
+        <v>6.836965592402048</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.64369777921242</v>
+        <v>2.063655477259142</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.88837763957096</v>
+        <v>15.41396903711627</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.08363550454316</v>
+        <v>6.518256173667836</v>
       </c>
       <c r="M9">
-        <v>15.33157544516561</v>
+        <v>13.20403558597679</v>
       </c>
       <c r="N9">
-        <v>18.25642454359037</v>
+        <v>11.66366345454134</v>
       </c>
       <c r="O9">
-        <v>24.85536755914772</v>
+        <v>18.72436441527675</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.32424845644298</v>
+        <v>24.8836074333802</v>
       </c>
       <c r="C10">
-        <v>10.43536422090796</v>
+        <v>15.87512900798443</v>
       </c>
       <c r="D10">
-        <v>6.461476841036696</v>
+        <v>8.910783027760537</v>
       </c>
       <c r="E10">
-        <v>11.36443580609818</v>
+        <v>6.73075422699038</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.639995303431135</v>
+        <v>2.053124311714768</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.77806064019801</v>
+        <v>15.55641485031512</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.08082228052668</v>
+        <v>6.698824442479136</v>
       </c>
       <c r="M10">
-        <v>15.50530639693698</v>
+        <v>14.36551122536887</v>
       </c>
       <c r="N10">
-        <v>18.16040298159903</v>
+        <v>11.31817519076043</v>
       </c>
       <c r="O10">
-        <v>24.86487698995134</v>
+        <v>19.5269513917658</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.65807699556569</v>
+        <v>25.78320809693522</v>
       </c>
       <c r="C11">
-        <v>10.66934398301518</v>
+        <v>16.36881295157811</v>
       </c>
       <c r="D11">
-        <v>6.55877319091034</v>
+        <v>9.243743232836051</v>
       </c>
       <c r="E11">
-        <v>11.34691810232644</v>
+        <v>6.684081414907498</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.638391461396227</v>
+        <v>2.048425165573866</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.73351523871507</v>
+        <v>15.64256119365374</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.08104260006113</v>
+        <v>6.783373266243315</v>
       </c>
       <c r="M11">
-        <v>15.58613831409439</v>
+        <v>14.86776776876128</v>
       </c>
       <c r="N11">
-        <v>18.11860237407027</v>
+        <v>11.16345424221052</v>
       </c>
       <c r="O11">
-        <v>24.87603333795955</v>
+        <v>19.90628281796173</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.78315879308646</v>
+        <v>26.11695955703824</v>
       </c>
       <c r="C12">
-        <v>10.75637980525225</v>
+        <v>16.55244522625696</v>
       </c>
       <c r="D12">
-        <v>6.595484313716284</v>
+        <v>9.36752691287659</v>
       </c>
       <c r="E12">
-        <v>11.34041536968798</v>
+        <v>6.666643736834181</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.637795627691717</v>
+        <v>2.046657647774842</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.71746111023117</v>
+        <v>15.67842741087875</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.08134092732142</v>
+        <v>6.815727131700876</v>
       </c>
       <c r="M12">
-        <v>15.61698597403853</v>
+        <v>15.05425851729449</v>
       </c>
       <c r="N12">
-        <v>18.10304258886396</v>
+        <v>11.10519361526911</v>
       </c>
       <c r="O12">
-        <v>24.88123949935631</v>
+        <v>20.05195043565585</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.75628119727747</v>
+        <v>26.04538577519045</v>
       </c>
       <c r="C13">
-        <v>10.73770535167025</v>
+        <v>16.51304383327837</v>
       </c>
       <c r="D13">
-        <v>6.587584438837832</v>
+        <v>9.340969435128784</v>
       </c>
       <c r="E13">
-        <v>11.34181003858634</v>
+        <v>6.670388738798852</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.637923440332974</v>
+        <v>2.047037803381776</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.72088238612663</v>
+        <v>15.67055593588023</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.08126713344483</v>
+        <v>6.808744292023921</v>
       </c>
       <c r="M13">
-        <v>15.61033210864047</v>
+        <v>15.01425822699117</v>
       </c>
       <c r="N13">
-        <v>18.10638171258444</v>
+        <v>11.11772682311024</v>
       </c>
       <c r="O13">
-        <v>24.88007462808521</v>
+        <v>20.0204886326127</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.66839488326552</v>
+        <v>25.81080387744925</v>
       </c>
       <c r="C14">
-        <v>10.67653608684769</v>
+        <v>16.38398681073283</v>
       </c>
       <c r="D14">
-        <v>6.561796321138059</v>
+        <v>9.253972825037289</v>
       </c>
       <c r="E14">
-        <v>11.34638049932063</v>
+        <v>6.682642069322784</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.638342211532163</v>
+        <v>2.048279518685049</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.73217811770168</v>
+        <v>15.64544591656006</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.08106284172229</v>
+        <v>6.786028331912846</v>
       </c>
       <c r="M14">
-        <v>15.58867151159723</v>
+        <v>14.88318437906433</v>
       </c>
       <c r="N14">
-        <v>18.11731687261349</v>
+        <v>11.15865464595104</v>
       </c>
       <c r="O14">
-        <v>24.87644198868079</v>
+        <v>19.91822654603739</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.61438519812144</v>
+        <v>25.66621917159152</v>
       </c>
       <c r="C15">
-        <v>10.6388629781553</v>
+        <v>16.30450453091018</v>
       </c>
       <c r="D15">
-        <v>6.545981901368596</v>
+        <v>9.200386680805352</v>
       </c>
       <c r="E15">
-        <v>11.34919706246539</v>
+        <v>6.690178368599802</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.638600217701803</v>
+        <v>2.049041623325178</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.73920321955206</v>
+        <v>15.63049295664745</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.08096566752674</v>
+        <v>6.772157790804344</v>
       </c>
       <c r="M15">
-        <v>15.5754341957609</v>
+        <v>14.80241722231024</v>
       </c>
       <c r="N15">
-        <v>18.12404999735517</v>
+        <v>11.18376626577168</v>
       </c>
       <c r="O15">
-        <v>24.87434467510336</v>
+        <v>19.85585094230537</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.30225182460983</v>
+        <v>24.82384416356719</v>
       </c>
       <c r="C16">
-        <v>10.41985578602721</v>
+        <v>15.84240069119621</v>
       </c>
       <c r="D16">
-        <v>6.455101821250146</v>
+        <v>8.888698619656347</v>
       </c>
       <c r="E16">
-        <v>11.36559896704043</v>
+        <v>6.733837463147607</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.640101731682022</v>
+        <v>2.053433152045193</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.78108554310544</v>
+        <v>15.55122956304149</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.08083800000215</v>
+        <v>6.693346621628008</v>
       </c>
       <c r="M16">
-        <v>15.50005832670333</v>
+        <v>14.33216653735471</v>
       </c>
       <c r="N16">
-        <v>18.16317248245898</v>
+        <v>11.32833382407477</v>
       </c>
       <c r="O16">
-        <v>24.86428530184356</v>
+        <v>19.50244541931621</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.10851957900674</v>
+        <v>24.29466122894358</v>
       </c>
       <c r="C17">
-        <v>10.28275063213985</v>
+        <v>15.55299198076874</v>
       </c>
       <c r="D17">
-        <v>6.399155100953252</v>
+        <v>8.693337449656294</v>
       </c>
       <c r="E17">
-        <v>11.37589460870229</v>
+        <v>6.76104166532498</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.641043420039851</v>
+        <v>2.056149820461788</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.80822560333674</v>
+        <v>15.50819699371376</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.08114333426293</v>
+        <v>6.645608366494728</v>
       </c>
       <c r="M17">
-        <v>15.45426437939335</v>
+        <v>14.03703176715445</v>
       </c>
       <c r="N17">
-        <v>18.18765356609483</v>
+        <v>11.41763131125678</v>
       </c>
       <c r="O17">
-        <v>24.85986342087168</v>
+        <v>19.2892690336377</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.99630240326304</v>
+        <v>23.9856951985259</v>
       </c>
       <c r="C18">
-        <v>10.20289315795436</v>
+        <v>15.38435123989032</v>
       </c>
       <c r="D18">
-        <v>6.366917383624158</v>
+        <v>8.579430264715278</v>
       </c>
       <c r="E18">
-        <v>11.38190240703777</v>
+        <v>6.776843453337249</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.641592628526931</v>
+        <v>2.057721069913377</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.82436635592311</v>
+        <v>15.48544483759133</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.08146020207613</v>
+        <v>6.618377688615706</v>
       </c>
       <c r="M18">
-        <v>15.4280956736436</v>
+        <v>13.86481764307028</v>
       </c>
       <c r="N18">
-        <v>18.20191146810504</v>
+        <v>11.4692242321008</v>
       </c>
       <c r="O18">
-        <v>24.85796308659003</v>
+        <v>19.16799621743382</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.95817615174484</v>
+        <v>23.88029257943495</v>
       </c>
       <c r="C19">
-        <v>10.17568463451487</v>
+        <v>15.32687764682706</v>
       </c>
       <c r="D19">
-        <v>6.355993423199649</v>
+        <v>8.540597227887748</v>
       </c>
       <c r="E19">
-        <v>11.38395133397783</v>
+        <v>6.782220234814336</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.64177988379487</v>
+        <v>2.058254596670537</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.82992234561969</v>
+        <v>15.47807930201631</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.08159177078307</v>
+        <v>6.609197146033336</v>
       </c>
       <c r="M19">
-        <v>15.41926534927104</v>
+        <v>13.80608484432376</v>
       </c>
       <c r="N19">
-        <v>18.20676938938061</v>
+        <v>11.48673312301574</v>
       </c>
       <c r="O19">
-        <v>24.85743011167859</v>
+        <v>19.12716637898724</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.12922510966634</v>
+        <v>24.35146839987299</v>
       </c>
       <c r="C20">
-        <v>10.29744932367577</v>
+        <v>15.58402564239091</v>
       </c>
       <c r="D20">
-        <v>6.40511708966832</v>
+        <v>8.714293087311221</v>
       </c>
       <c r="E20">
-        <v>11.37478972139485</v>
+        <v>6.75812972706114</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.640942392233243</v>
+        <v>2.055859735225523</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.80528156661532</v>
+        <v>15.51256971378089</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.08109621791111</v>
+        <v>6.650666749771307</v>
       </c>
       <c r="M20">
-        <v>15.45912169807047</v>
+        <v>14.0687036558555</v>
       </c>
       <c r="N20">
-        <v>18.18502919940068</v>
+        <v>11.40810165689759</v>
       </c>
       <c r="O20">
-        <v>24.86026759035394</v>
+        <v>19.31182346471145</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.69424626140075</v>
+        <v>25.87989291410953</v>
       </c>
       <c r="C21">
-        <v>10.69454580164147</v>
+        <v>16.4219837929539</v>
       </c>
       <c r="D21">
-        <v>6.56937483012578</v>
+        <v>9.279587895448307</v>
       </c>
       <c r="E21">
-        <v>11.34503449736081</v>
+        <v>6.679036553906278</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.638218896470807</v>
+        <v>2.047914482720334</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.72883816199269</v>
+        <v>15.65273190882654</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.08111702180421</v>
+        <v>6.792691480317517</v>
       </c>
       <c r="M21">
-        <v>15.59502745062658</v>
+        <v>14.92178401326251</v>
       </c>
       <c r="N21">
-        <v>18.1140976542168</v>
+        <v>11.14662440996656</v>
       </c>
       <c r="O21">
-        <v>24.87748235561647</v>
+        <v>19.94820864832019</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.05571005951032</v>
+        <v>26.83859314474816</v>
       </c>
       <c r="C22">
-        <v>10.94492191992959</v>
+        <v>16.95032898453192</v>
       </c>
       <c r="D22">
-        <v>6.675935204549758</v>
+        <v>9.635652143100778</v>
       </c>
       <c r="E22">
-        <v>11.32635014390375</v>
+        <v>6.6287222519008</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.636505975670207</v>
+        <v>2.04279080295663</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.68362557180734</v>
+        <v>15.76332574382225</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.08238276504181</v>
+        <v>6.887474028649835</v>
       </c>
       <c r="M22">
-        <v>15.68522932293818</v>
+        <v>15.4577648082526</v>
       </c>
       <c r="N22">
-        <v>18.06930835525846</v>
+        <v>10.97763979777143</v>
       </c>
       <c r="O22">
-        <v>24.89445313317376</v>
+        <v>20.37590952737094</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.86354105872029</v>
+        <v>26.33056170793525</v>
       </c>
       <c r="C23">
-        <v>10.8121401701661</v>
+        <v>16.67010056827179</v>
       </c>
       <c r="D23">
-        <v>6.619146962775643</v>
+        <v>9.446822496646005</v>
       </c>
       <c r="E23">
-        <v>11.33625274659454</v>
+        <v>6.655449776518023</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.637414079070794</v>
+        <v>2.045519520180068</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.70732086067372</v>
+        <v>15.70250536080628</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.08159293297156</v>
+        <v>6.836710099890439</v>
       </c>
       <c r="M23">
-        <v>15.63696754083901</v>
+        <v>15.17365620794808</v>
       </c>
       <c r="N23">
-        <v>18.09307010047973</v>
+        <v>11.06766326072543</v>
       </c>
       <c r="O23">
-        <v>24.88487260484978</v>
+        <v>20.1465649091871</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.11986674002597</v>
+        <v>24.32580062371212</v>
       </c>
       <c r="C24">
-        <v>10.29080726263232</v>
+        <v>15.5700023512495</v>
       </c>
       <c r="D24">
-        <v>6.402421899548702</v>
+        <v>8.704824004121575</v>
       </c>
       <c r="E24">
-        <v>11.37528896463296</v>
+        <v>6.759445710592573</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.640988042543349</v>
+        <v>2.055990853389166</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.80661089133126</v>
+        <v>15.5105866286427</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.08111707893366</v>
+        <v>6.64837918530178</v>
       </c>
       <c r="M24">
-        <v>15.45692520793082</v>
+        <v>14.05439270162482</v>
       </c>
       <c r="N24">
-        <v>18.18621510418536</v>
+        <v>11.41240921889509</v>
       </c>
       <c r="O24">
-        <v>24.86008286587191</v>
+        <v>19.30162260165795</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.28816879135542</v>
+        <v>21.98732689569714</v>
       </c>
       <c r="C25">
-        <v>9.690513276549561</v>
+        <v>14.30005060436798</v>
       </c>
       <c r="D25">
-        <v>6.166585568686013</v>
+        <v>7.845382573292971</v>
       </c>
       <c r="E25">
-        <v>11.42068673545672</v>
+        <v>6.877538234212483</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.645132974339123</v>
+        <v>2.067622447493253</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.93397877157326</v>
+        <v>15.37925857784088</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.08600637589678</v>
+        <v>6.453958399057905</v>
       </c>
       <c r="M25">
-        <v>15.26932778662383</v>
+        <v>12.8203533721448</v>
       </c>
       <c r="N25">
-        <v>18.29346038307748</v>
+        <v>11.7932064087385</v>
       </c>
       <c r="O25">
-        <v>24.85792118652575</v>
+        <v>18.44159723674663</v>
       </c>
     </row>
   </sheetData>
